--- a/data/predictions/gender/gay_marr/overall/independent.xlsx
+++ b/data/predictions/gender/gay_marr/overall/independent.xlsx
@@ -739,7 +739,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.2561601747744586</v>
+        <v>0.05509320880925093</v>
       </c>
       <c r="D34">
         <v>0.09251456832952937</v>
@@ -751,7 +751,7 @@
         <v>0.2979949868508403</v>
       </c>
       <c r="J34">
-        <v>0.431448420443763</v>
+        <v>0.3378721847863623</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -759,7 +759,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.2561601747744586</v>
+        <v>0.02263833734433998</v>
       </c>
       <c r="D35">
         <v>0.08883446945000159</v>
@@ -771,7 +771,7 @@
         <v>0.3280398867187131</v>
       </c>
       <c r="J35">
-        <v>0.455059294654998</v>
+        <v>0.3882106008123133</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -779,7 +779,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.2561601747744586</v>
+        <v>-0.004973623698627958</v>
       </c>
       <c r="D36">
         <v>0.0561373390240518</v>
@@ -791,7 +791,7 @@
         <v>0.3570314491063338</v>
       </c>
       <c r="J36">
-        <v>0.5032678946549918</v>
+        <v>0.4367045674186277</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -799,7 +799,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.2561601747744586</v>
+        <v>-0.0527193903336439</v>
       </c>
       <c r="D37">
         <v>0.05453264206355269</v>
@@ -811,7 +811,7 @@
         <v>0.3851585091690252</v>
       </c>
       <c r="J37">
-        <v>0.5454474313813507</v>
+        <v>0.4895858156441525</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -819,7 +819,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.2561601747744586</v>
+        <v>-0.04673757910310699</v>
       </c>
       <c r="D38">
         <v>0.02484023949977926</v>
@@ -831,7 +831,7 @@
         <v>0.4125760489841037</v>
       </c>
       <c r="J38">
-        <v>0.5886830359469333</v>
+        <v>0.4956198346975687</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -839,7 +839,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.2561601747744586</v>
+        <v>-0.09823692950804694</v>
       </c>
       <c r="D39">
         <v>0.02197291130254328</v>
@@ -851,7 +851,7 @@
         <v>0.4394112664996861</v>
       </c>
       <c r="J39">
-        <v>0.6262813063518798</v>
+        <v>0.6028858254167058</v>
       </c>
     </row>
   </sheetData>
